--- a/DOc/ตัววางแผนโครงการแกนต์1 (บันทึกอัตโนมัติ).xlsx
+++ b/DOc/ตัววางแผนโครงการแกนต์1 (บันทึกอัตโนมัติ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="-120" windowWidth="28836" windowHeight="16152" activeTab="6"/>
+    <workbookView xWindow="816" yWindow="-120" windowWidth="28836" windowHeight="16152"/>
   </bookViews>
   <sheets>
     <sheet name="ตัววางแผนโครงการ" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,6 @@
     <definedName name="แผน">PeriodInPlan*(ตัววางแผนโครงการ!$C1&gt;0)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2054,6 +2053,8 @@
     <xf numFmtId="0" fontId="3" fillId="44" borderId="14" xfId="59" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="44" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="59" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="16" xfId="59" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="59" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2090,28 +2091,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="16" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="15" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="36" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="43" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="43" borderId="15" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="44" borderId="15" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,6 +2113,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="42" borderId="15" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="16" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="15" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="36" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="59" applyBorder="1" applyAlignment="1">
@@ -2159,8 +2160,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="16" xfId="59" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="59" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="% เสร็จสมบูรณ์" xfId="16"/>
@@ -3834,8 +3833,8 @@
   </sheetPr>
   <dimension ref="B1:BO15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3859,81 +3858,81 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="71"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="73"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="61" t="s">
+      <c r="AI2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
       <c r="AQ2" s="8"/>
     </row>
     <row r="3" spans="2:67" s="18" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="70" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -3960,12 +3959,12 @@
       <c r="AA3" s="17"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>
@@ -4312,19 +4311,19 @@
         <v>136</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -5209,22 +5208,22 @@
       <c r="A1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="D2" s="73" t="s">
+      <c r="B2" s="86"/>
+      <c r="D2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="G2" s="74" t="s">
+      <c r="E2" s="83"/>
+      <c r="G2" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="J2" s="79" t="s">
+      <c r="H2" s="85"/>
+      <c r="J2" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="80"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -5418,10 +5417,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="25"/>
       <c r="D11" s="57" t="s">
         <v>201</v>
@@ -5516,11 +5515,11 @@
       <c r="D16" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="G16" s="74" t="s">
+      <c r="E16" s="87"/>
+      <c r="G16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
@@ -5577,10 +5576,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="82"/>
       <c r="D20" s="56" t="s">
         <v>20</v>
       </c>
@@ -5640,7 +5639,7 @@
       <c r="D23" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="81"/>
+      <c r="E23" s="78"/>
       <c r="G23" s="52" t="s">
         <v>226</v>
       </c>
@@ -5728,7 +5727,7 @@
       <c r="D29" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="61" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5742,7 +5741,7 @@
       <c r="D30" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="96" t="s">
+      <c r="E30" s="61" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5812,7 +5811,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5851,7 +5850,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="90" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -5868,7 +5867,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="24" t="s">
         <v>47</v>
       </c>
@@ -5883,8 +5882,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="97" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="62" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -5898,7 +5897,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="24" t="s">
         <v>52</v>
       </c>
@@ -5913,7 +5912,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -5930,7 +5929,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="24" t="s">
         <v>55</v>
       </c>
@@ -5945,7 +5944,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="24" t="s">
         <v>61</v>
       </c>
@@ -5960,7 +5959,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="88" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -5977,7 +5976,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="24" t="s">
         <v>68</v>
       </c>
@@ -5992,7 +5991,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="24" t="s">
         <v>68</v>
       </c>
@@ -6007,7 +6006,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="24" t="s">
         <v>72</v>
       </c>
@@ -6022,7 +6021,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="24" t="s">
         <v>75</v>
       </c>
@@ -6037,7 +6036,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="88" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -6054,7 +6053,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="24" t="s">
         <v>82</v>
       </c>
@@ -6069,7 +6068,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="24" t="s">
         <v>85</v>
       </c>
@@ -6084,7 +6083,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="24" t="s">
         <v>88</v>
       </c>
@@ -6099,7 +6098,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="24" t="s">
         <v>88</v>
       </c>
@@ -6114,7 +6113,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="24" t="s">
         <v>88</v>
       </c>
@@ -6129,7 +6128,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="24" t="s">
         <v>93</v>
       </c>
@@ -6144,7 +6143,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="24" t="s">
         <v>96</v>
       </c>
@@ -6159,8 +6158,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="88"/>
+      <c r="B24" s="62" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -6174,7 +6173,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="88" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="24" t="s">
@@ -6191,7 +6190,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="33" t="s">
         <v>103</v>
       </c>
@@ -6232,7 +6231,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6281,7 +6280,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="91" t="s">
         <v>115</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -6296,12 +6295,12 @@
       <c r="F5" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="94" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="42"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43" t="s">
@@ -6310,10 +6309,10 @@
       <c r="F6" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="93"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="42" t="s">
         <v>123</v>
       </c>
@@ -6329,7 +6328,7 @@
       <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="40" t="s">
         <v>126</v>
       </c>
@@ -6345,7 +6344,7 @@
       <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="42"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43" t="s">
@@ -6357,7 +6356,7 @@
       <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="90"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="42"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43" t="s">
@@ -6369,7 +6368,7 @@
       <c r="G10" s="43"/>
     </row>
     <row r="11" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="42" t="s">
         <v>129</v>
       </c>
@@ -6385,7 +6384,7 @@
       <c r="G11" s="43"/>
     </row>
     <row r="12" spans="2:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="91"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="42" t="s">
         <v>133</v>
       </c>
@@ -6549,7 +6548,7 @@
   <dimension ref="B1:BO10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6573,81 +6572,81 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="71"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="73"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="61" t="s">
+      <c r="AI2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
       <c r="AQ2" s="22"/>
     </row>
     <row r="3" spans="2:67" s="18" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="70" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -6674,12 +6673,12 @@
       <c r="AA3" s="17"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>
@@ -7509,13 +7508,13 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
@@ -7523,67 +7522,67 @@
         <v>9</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="71"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="73"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="61" t="s">
+      <c r="AI2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
       <c r="AQ2" s="22"/>
     </row>
     <row r="3" spans="2:67" s="18" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="70" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -7610,12 +7609,12 @@
       <c r="AA3" s="17"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>
@@ -8577,7 +8576,7 @@
   </sheetPr>
   <dimension ref="B1:BO10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -8602,13 +8601,13 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
@@ -8616,67 +8615,67 @@
         <v>9</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="71"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="73"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="61" t="s">
+      <c r="AI2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
       <c r="AQ2" s="22"/>
     </row>
     <row r="3" spans="2:67" s="18" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="70" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -8703,12 +8702,12 @@
       <c r="AA3" s="17"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="19">
         <v>1</v>
       </c>
